--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC DrugStore.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC DrugStore.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\New folder\IC POS 2020 OTHER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\IC POS 2020 OTHER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657842D9-D541-4C81-8BF3-348593D7879D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B877D6C-32C3-466F-86E7-4872F2BD1886}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,10 +17,10 @@
     <sheet name="Cinema" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AO$54</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cinema!$A$1:$AP$54</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Cinema!$A$1:$AP$54</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="147">
   <si>
     <t>Sorting</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>DrugStore</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
   </si>
 </sst>
 </file>
@@ -1074,11 +1077,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML32"/>
+  <dimension ref="A1:AMM32"/>
   <sheetViews>
     <sheetView windowProtection="1" tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,13 +1089,13 @@
     <col min="1" max="8" width="8.88671875" style="6"/>
     <col min="9" max="9" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="37" width="8.88671875" style="6"/>
-    <col min="38" max="41" width="8.88671875" style="24"/>
-    <col min="42" max="1026" width="9.109375" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="8.88671875" style="7"/>
+    <col min="11" max="38" width="8.88671875" style="6"/>
+    <col min="39" max="42" width="8.88671875" style="24"/>
+    <col min="43" max="1027" width="9.109375" style="6" customWidth="1"/>
+    <col min="1028" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,77 +1150,80 @@
       <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AN1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1264,25 +1270,26 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="12"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
-      <c r="AL2" s="13">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="13">
         <v>1</v>
       </c>
-      <c r="AM2" s="13">
+      <c r="AN2" s="13">
         <v>300</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="AO2" s="8">
+      <c r="AP2" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1321,7 +1328,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="8"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -1334,28 +1341,29 @@
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="8"/>
+      <c r="AH3" s="11"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="8">
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8">
         <v>2</v>
       </c>
-      <c r="AM3" s="8">
+      <c r="AN3" s="8">
         <v>1</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AO3" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="AO3" s="8">
+      <c r="AP3" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1396,49 +1404,50 @@
       </c>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="13"/>
+      <c r="T4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="8"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="8" t="s">
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AH4" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="8">
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8">
         <v>3</v>
       </c>
-      <c r="AM4" s="8">
+      <c r="AN4" s="8">
         <v>2</v>
       </c>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8">
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1479,49 +1488,50 @@
       </c>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
-      <c r="S5" s="8" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="8"/>
+      <c r="V5" s="15"/>
       <c r="W5" s="8"/>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
-      <c r="AA5" s="8" t="s">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="8" t="s">
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="16">
+      <c r="AH5" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="8">
-        <v>3</v>
-      </c>
+      <c r="AL5" s="8"/>
       <c r="AM5" s="8">
         <v>3</v>
       </c>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8">
+      <c r="AN5" s="8">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1562,49 +1572,50 @@
       </c>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="U6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="8"/>
+      <c r="V6" s="15"/>
       <c r="W6" s="8"/>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="8" t="s">
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG6" s="16">
+      <c r="AH6" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
-      <c r="AL6" s="8">
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8">
         <v>3</v>
       </c>
-      <c r="AM6" s="8">
+      <c r="AN6" s="8">
         <v>4</v>
       </c>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8">
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1645,49 +1656,50 @@
       </c>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="8"/>
+      <c r="V7" s="15"/>
       <c r="W7" s="8"/>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
-      <c r="AA7" s="8" t="s">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="8" t="s">
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG7" s="16">
+      <c r="AH7" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
-      <c r="AL7" s="8">
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8">
         <v>3</v>
       </c>
-      <c r="AM7" s="8">
+      <c r="AN7" s="8">
         <v>5</v>
       </c>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="8">
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1728,49 +1740,50 @@
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U8" s="15"/>
-      <c r="V8" s="8"/>
+      <c r="V8" s="15"/>
       <c r="W8" s="8"/>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
-      <c r="AA8" s="8" t="s">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="8" t="s">
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG8" s="16">
+      <c r="AH8" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
-      <c r="AL8" s="8">
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8">
         <v>3</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AN8" s="8">
         <v>6</v>
       </c>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="8">
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1811,49 +1824,50 @@
       </c>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="8" t="s">
+      <c r="U9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="8"/>
+      <c r="V9" s="15"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
-      <c r="AA9" s="8" t="s">
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="8" t="s">
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG9" s="16">
+      <c r="AH9" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
-      <c r="AL9" s="8">
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8">
         <v>3</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AN9" s="8">
         <v>7</v>
       </c>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8">
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1894,49 +1908,50 @@
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
-      <c r="S10" s="8" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="15"/>
-      <c r="V10" s="8"/>
+      <c r="V10" s="15"/>
       <c r="W10" s="8"/>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
-      <c r="AA10" s="8" t="s">
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="8" t="s">
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG10" s="16">
+      <c r="AH10" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
-      <c r="AL10" s="8">
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8">
         <v>3</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AN10" s="8">
         <v>8</v>
       </c>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8">
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1977,49 +1992,50 @@
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="15"/>
-      <c r="V11" s="8"/>
+      <c r="V11" s="15"/>
       <c r="W11" s="8"/>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
-      <c r="AA11" s="8" t="s">
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
-      <c r="AF11" s="8" t="s">
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG11" s="16">
+      <c r="AH11" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH11" s="8"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="8">
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8">
         <v>3</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AN11" s="8">
         <v>9</v>
       </c>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="8">
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1027" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -2060,48 +2076,48 @@
       </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="7"/>
+      <c r="T12" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="U12" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="7"/>
+      <c r="Y12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
-      <c r="AA12" s="21" t="s">
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="21" t="s">
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AG12" s="16">
+      <c r="AH12" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH12" s="22"/>
       <c r="AI12" s="22"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
-      <c r="AL12" s="23">
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="23">
         <v>3</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AN12" s="8">
         <v>10</v>
       </c>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="23">
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="23">
         <v>1</v>
       </c>
-      <c r="AP12" s="21"/>
       <c r="AQ12" s="21"/>
       <c r="AR12" s="21"/>
       <c r="AS12" s="21"/>
@@ -3086,8 +3102,9 @@
       <c r="AMJ12" s="21"/>
       <c r="AMK12" s="21"/>
       <c r="AML12" s="21"/>
+      <c r="AMM12" s="21"/>
     </row>
-    <row r="13" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1027" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3128,48 +3145,48 @@
       </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="7"/>
+      <c r="T13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="U13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="8" t="s">
+      <c r="X13" s="7"/>
+      <c r="Y13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
-      <c r="AA13" s="21" t="s">
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="21" t="s">
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AG13" s="16">
+      <c r="AH13" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH13" s="22"/>
       <c r="AI13" s="22"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
-      <c r="AL13" s="23">
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="23">
         <v>3</v>
       </c>
-      <c r="AM13" s="8">
+      <c r="AN13" s="8">
         <v>11</v>
       </c>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="23">
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="23">
         <v>1</v>
       </c>
-      <c r="AP13" s="21"/>
       <c r="AQ13" s="21"/>
       <c r="AR13" s="21"/>
       <c r="AS13" s="21"/>
@@ -4154,8 +4171,9 @@
       <c r="AMJ13" s="21"/>
       <c r="AMK13" s="21"/>
       <c r="AML13" s="21"/>
+      <c r="AMM13" s="21"/>
     </row>
-    <row r="14" spans="1:1026" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1027" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -4196,48 +4214,48 @@
       </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="7"/>
+      <c r="T14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="U14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="7"/>
+      <c r="Y14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
-      <c r="AA14" s="21" t="s">
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="21" t="s">
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AG14" s="16">
+      <c r="AH14" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH14" s="22"/>
       <c r="AI14" s="22"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
-      <c r="AL14" s="23">
+      <c r="AL14" s="22"/>
+      <c r="AM14" s="23">
         <v>3</v>
       </c>
-      <c r="AM14" s="8">
+      <c r="AN14" s="8">
         <v>12</v>
       </c>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="23">
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="23">
         <v>1</v>
       </c>
-      <c r="AP14" s="21"/>
       <c r="AQ14" s="21"/>
       <c r="AR14" s="21"/>
       <c r="AS14" s="21"/>
@@ -5222,8 +5240,9 @@
       <c r="AMJ14" s="21"/>
       <c r="AMK14" s="21"/>
       <c r="AML14" s="21"/>
+      <c r="AMM14" s="21"/>
     </row>
-    <row r="15" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -5262,10 +5281,10 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-      <c r="S15" s="8"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="15"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
@@ -5275,28 +5294,29 @@
       <c r="AC15" s="8"/>
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
-      <c r="AF15" s="8" t="s">
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="8"/>
+      <c r="AH15" s="11"/>
       <c r="AI15" s="8"/>
       <c r="AJ15" s="8"/>
       <c r="AK15" s="8"/>
-      <c r="AL15" s="8">
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8">
         <v>2</v>
       </c>
-      <c r="AM15" s="8">
+      <c r="AN15" s="8">
         <v>13</v>
       </c>
-      <c r="AN15" s="14" t="s">
+      <c r="AO15" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="AO15" s="8">
+      <c r="AP15" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:1026" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1027" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -5337,49 +5357,50 @@
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-      <c r="S16" s="8" t="s">
+      <c r="S16" s="13"/>
+      <c r="T16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="8" t="s">
+      <c r="U16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="15"/>
-      <c r="V16" s="8"/>
+      <c r="V16" s="15"/>
       <c r="W16" s="8"/>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
-      <c r="AA16" s="8" t="s">
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
-      <c r="AF16" s="8" t="s">
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG16" s="16">
+      <c r="AH16" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="8">
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8">
         <v>3</v>
       </c>
-      <c r="AM16" s="8">
+      <c r="AN16" s="8">
         <v>14</v>
       </c>
-      <c r="AN16" s="8"/>
-      <c r="AO16" s="8">
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -5420,49 +5441,50 @@
       </c>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="13"/>
+      <c r="T17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="U17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="15"/>
-      <c r="V17" s="8"/>
+      <c r="V17" s="15"/>
       <c r="W17" s="8"/>
-      <c r="X17" s="8" t="s">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
-      <c r="AA17" s="8" t="s">
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
-      <c r="AF17" s="8" t="s">
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG17" s="16">
+      <c r="AH17" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH17" s="8"/>
       <c r="AI17" s="8"/>
       <c r="AJ17" s="8"/>
       <c r="AK17" s="8"/>
-      <c r="AL17" s="8">
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8">
         <v>3</v>
       </c>
-      <c r="AM17" s="8">
+      <c r="AN17" s="8">
         <v>15</v>
       </c>
-      <c r="AN17" s="8"/>
-      <c r="AO17" s="8">
+      <c r="AO17" s="8"/>
+      <c r="AP17" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -5501,10 +5523,10 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
-      <c r="S18" s="8"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="15"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="8"/>
@@ -5514,28 +5536,29 @@
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
-      <c r="AF18" s="8" t="s">
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="8"/>
+      <c r="AH18" s="11"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
       <c r="AK18" s="8"/>
-      <c r="AL18" s="8">
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8">
         <v>2</v>
       </c>
-      <c r="AM18" s="8">
+      <c r="AN18" s="8">
         <v>16</v>
       </c>
-      <c r="AN18" s="14">
+      <c r="AO18" s="14">
         <v>17</v>
       </c>
-      <c r="AO18" s="8">
+      <c r="AP18" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -5576,49 +5599,50 @@
       </c>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-      <c r="S19" s="8" t="s">
+      <c r="S19" s="13"/>
+      <c r="T19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T19" s="8" t="s">
+      <c r="U19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="8"/>
+      <c r="V19" s="15"/>
       <c r="W19" s="8"/>
-      <c r="X19" s="8" t="s">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
-      <c r="AA19" s="8" t="s">
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
-      <c r="AF19" s="8" t="s">
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG19" s="16">
+      <c r="AH19" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH19" s="8"/>
       <c r="AI19" s="8"/>
       <c r="AJ19" s="8"/>
       <c r="AK19" s="8"/>
-      <c r="AL19" s="8">
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8">
         <v>3</v>
       </c>
-      <c r="AM19" s="8">
+      <c r="AN19" s="8">
         <v>17</v>
       </c>
-      <c r="AN19" s="8"/>
-      <c r="AO19" s="8">
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -5657,10 +5681,10 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="8"/>
+      <c r="S20" s="13"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="15"/>
       <c r="W20" s="8"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="8"/>
@@ -5670,28 +5694,29 @@
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
-      <c r="AF20" s="8" t="s">
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="8"/>
+      <c r="AH20" s="11"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
       <c r="AK20" s="8"/>
-      <c r="AL20" s="8">
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8">
         <v>2</v>
       </c>
-      <c r="AM20" s="8">
+      <c r="AN20" s="8">
         <v>18</v>
       </c>
-      <c r="AN20" s="14" t="s">
+      <c r="AO20" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="AO20" s="8">
+      <c r="AP20" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -5732,49 +5757,50 @@
       </c>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-      <c r="S21" s="8" t="s">
+      <c r="S21" s="13"/>
+      <c r="T21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="U21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="15"/>
-      <c r="V21" s="8"/>
+      <c r="V21" s="15"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="8" t="s">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="8" t="s">
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
-      <c r="AF21" s="8" t="s">
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG21" s="16">
+      <c r="AH21" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH21" s="8"/>
       <c r="AI21" s="8"/>
       <c r="AJ21" s="8"/>
       <c r="AK21" s="8"/>
-      <c r="AL21" s="8">
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8">
         <v>3</v>
       </c>
-      <c r="AM21" s="8">
+      <c r="AN21" s="8">
         <v>19</v>
       </c>
-      <c r="AN21" s="8"/>
-      <c r="AO21" s="8">
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -5815,49 +5841,50 @@
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8" t="s">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T22" s="8" t="s">
+      <c r="U22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="8"/>
+      <c r="V22" s="15"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="8" t="s">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
-      <c r="AF22" s="8" t="s">
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG22" s="16">
+      <c r="AH22" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
       <c r="AK22" s="8"/>
-      <c r="AL22" s="8">
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8">
         <v>3</v>
       </c>
-      <c r="AM22" s="8">
+      <c r="AN22" s="8">
         <v>20</v>
       </c>
-      <c r="AN22" s="8"/>
-      <c r="AO22" s="8">
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -5898,49 +5925,50 @@
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="8" t="s">
+      <c r="S23" s="8"/>
+      <c r="T23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="U23" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="8"/>
+      <c r="V23" s="15"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="8" t="s">
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
-      <c r="AF23" s="8" t="s">
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG23" s="16">
+      <c r="AH23" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH23" s="8"/>
       <c r="AI23" s="8"/>
       <c r="AJ23" s="8"/>
       <c r="AK23" s="8"/>
-      <c r="AL23" s="8">
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8">
         <v>3</v>
       </c>
-      <c r="AM23" s="8">
+      <c r="AN23" s="8">
         <v>21</v>
       </c>
-      <c r="AN23" s="8"/>
-      <c r="AO23" s="8">
+      <c r="AO23" s="8"/>
+      <c r="AP23" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -5981,49 +6009,50 @@
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="8" t="s">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="U24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="8"/>
+      <c r="V24" s="15"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="8" t="s">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="8" t="s">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="8" t="s">
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG24" s="16">
+      <c r="AH24" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
       <c r="AK24" s="8"/>
-      <c r="AL24" s="8">
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8">
         <v>3</v>
       </c>
-      <c r="AM24" s="8">
+      <c r="AN24" s="8">
         <v>22</v>
       </c>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8">
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -6064,8 +6093,8 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="15"/>
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
@@ -6075,28 +6104,29 @@
       <c r="AC25" s="8"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="8" t="s">
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="8"/>
+      <c r="AH25" s="11"/>
       <c r="AI25" s="8"/>
       <c r="AJ25" s="8"/>
       <c r="AK25" s="8"/>
-      <c r="AL25" s="8">
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8">
         <v>2</v>
       </c>
-      <c r="AM25" s="8">
+      <c r="AN25" s="8">
         <v>23</v>
       </c>
-      <c r="AN25" s="14" t="s">
+      <c r="AO25" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="AO25" s="8">
+      <c r="AP25" s="8">
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -6137,49 +6167,50 @@
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="U26" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="8"/>
+      <c r="V26" s="15"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="8" t="s">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="8" t="s">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
-      <c r="AF26" s="8" t="s">
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG26" s="16">
+      <c r="AH26" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
       <c r="AK26" s="8"/>
-      <c r="AL26" s="8">
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8">
         <v>3</v>
       </c>
-      <c r="AM26" s="8">
+      <c r="AN26" s="8">
         <v>24</v>
       </c>
-      <c r="AN26" s="8"/>
-      <c r="AO26" s="8">
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -6220,49 +6251,50 @@
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="8" t="s">
+      <c r="S27" s="8"/>
+      <c r="T27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="U27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="8"/>
+      <c r="V27" s="15"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="8" t="s">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="8" t="s">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
-      <c r="AF27" s="8" t="s">
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG27" s="16">
+      <c r="AH27" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH27" s="8"/>
       <c r="AI27" s="8"/>
       <c r="AJ27" s="8"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="8">
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8">
         <v>3</v>
       </c>
-      <c r="AM27" s="8">
+      <c r="AN27" s="8">
         <v>25</v>
       </c>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8">
+      <c r="AO27" s="8"/>
+      <c r="AP27" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -6303,49 +6335,50 @@
       </c>
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
-      <c r="S28" s="8" t="s">
+      <c r="S28" s="13"/>
+      <c r="T28" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T28" s="8" t="s">
+      <c r="U28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="8"/>
+      <c r="V28" s="15"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="8" t="s">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="8" t="s">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
-      <c r="AF28" s="8" t="s">
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG28" s="16">
+      <c r="AH28" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="8">
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8">
         <v>3</v>
       </c>
-      <c r="AM28" s="8">
+      <c r="AN28" s="8">
         <v>26</v>
       </c>
-      <c r="AN28" s="8"/>
-      <c r="AO28" s="8">
+      <c r="AO28" s="8"/>
+      <c r="AP28" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -6386,49 +6419,50 @@
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="8" t="s">
+      <c r="S29" s="13"/>
+      <c r="T29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="U29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="8"/>
+      <c r="V29" s="15"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="8" t="s">
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="8" t="s">
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
-      <c r="AF29" s="8" t="s">
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG29" s="16">
+      <c r="AH29" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="8">
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8">
         <v>3</v>
       </c>
-      <c r="AM29" s="8">
+      <c r="AN29" s="8">
         <v>27</v>
       </c>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8">
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -6469,49 +6503,50 @@
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="8" t="s">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="U30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="8"/>
+      <c r="V30" s="15"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="8" t="s">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="8" t="s">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
-      <c r="AF30" s="8" t="s">
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG30" s="16">
+      <c r="AH30" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
       <c r="AK30" s="8"/>
-      <c r="AL30" s="8">
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8">
         <v>3</v>
       </c>
-      <c r="AM30" s="8">
+      <c r="AN30" s="8">
         <v>28</v>
       </c>
-      <c r="AN30" s="8"/>
-      <c r="AO30" s="8">
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -6552,49 +6587,50 @@
       </c>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="13"/>
+      <c r="T31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="U31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="8"/>
+      <c r="V31" s="15"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="8" t="s">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="8" t="s">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
-      <c r="AF31" s="8" t="s">
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG31" s="16">
+      <c r="AH31" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH31" s="8"/>
       <c r="AI31" s="8"/>
       <c r="AJ31" s="8"/>
       <c r="AK31" s="8"/>
-      <c r="AL31" s="8">
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8">
         <v>3</v>
       </c>
-      <c r="AM31" s="8">
+      <c r="AN31" s="8">
         <v>29</v>
       </c>
-      <c r="AN31" s="8"/>
-      <c r="AO31" s="8">
+      <c r="AO31" s="8"/>
+      <c r="AP31" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:41" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -6635,50 +6671,51 @@
       </c>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="13"/>
+      <c r="T32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="U32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="8"/>
+      <c r="V32" s="15"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="8" t="s">
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-      <c r="AA32" s="8" t="s">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
-      <c r="AF32" s="8" t="s">
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AG32" s="16">
+      <c r="AH32" s="16">
         <v>0.04</v>
       </c>
-      <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
       <c r="AK32" s="8"/>
-      <c r="AL32" s="8">
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8">
         <v>3</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AN32" s="8">
         <v>30</v>
       </c>
-      <c r="AN32" s="8"/>
-      <c r="AO32" s="8">
+      <c r="AO32" s="8"/>
+      <c r="AP32" s="8">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
